--- a/src/examplepackage/outputdata/unique_matrix.xlsx
+++ b/src/examplepackage/outputdata/unique_matrix.xlsx
@@ -19,13 +19,13 @@
     <t>Soil and Construction</t>
   </si>
   <si>
-    <t>Coal burning</t>
-  </si>
-  <si>
-    <t>Industrial emission</t>
-  </si>
-  <si>
-    <t>Car exhaust</t>
+    <t>Coal Burning</t>
+  </si>
+  <si>
+    <t>Industrial Emission</t>
+  </si>
+  <si>
+    <t>Vehicle Emission</t>
   </si>
   <si>
     <t>Biomass</t>
@@ -34,145 +34,145 @@
     <t>index</t>
   </si>
   <si>
+    <t>89Y</t>
+  </si>
+  <si>
     <t>51V</t>
   </si>
   <si>
-    <t>89Y</t>
+    <t>64Zn</t>
+  </si>
+  <si>
+    <t>93Nb</t>
+  </si>
+  <si>
+    <t>69Ga</t>
+  </si>
+  <si>
+    <t>98Mo</t>
+  </si>
+  <si>
+    <t>85Rb</t>
+  </si>
+  <si>
+    <t>63Cu</t>
+  </si>
+  <si>
+    <t>238U</t>
+  </si>
+  <si>
+    <t>60Ni</t>
+  </si>
+  <si>
+    <t>48Ti</t>
+  </si>
+  <si>
+    <t>75As</t>
+  </si>
+  <si>
+    <t>78Se</t>
   </si>
   <si>
     <t>55Mn</t>
   </si>
   <si>
-    <t>63Cu</t>
-  </si>
-  <si>
-    <t>78Se</t>
-  </si>
-  <si>
-    <t>69Ga</t>
+    <t>59Co</t>
   </si>
   <si>
     <t>53Cr</t>
   </si>
   <si>
-    <t>98Mo</t>
+    <t>90Zr</t>
   </si>
   <si>
     <t>72Ge</t>
   </si>
   <si>
-    <t>90Zr</t>
-  </si>
-  <si>
-    <t>59Co</t>
-  </si>
-  <si>
-    <t>75As</t>
-  </si>
-  <si>
-    <t>85Rb</t>
-  </si>
-  <si>
-    <t>238U</t>
-  </si>
-  <si>
-    <t>93Nb</t>
+    <t>88Sr</t>
   </si>
   <si>
     <t>54Fe</t>
   </si>
   <si>
-    <t>60Ni</t>
-  </si>
-  <si>
-    <t>88Sr</t>
-  </si>
-  <si>
-    <t>64Zn</t>
-  </si>
-  <si>
-    <t>48Ti</t>
+    <t>108Pd</t>
+  </si>
+  <si>
+    <t>208Pb</t>
+  </si>
+  <si>
+    <t>195Pt</t>
+  </si>
+  <si>
+    <t>193Ir</t>
+  </si>
+  <si>
+    <t>175Lu</t>
+  </si>
+  <si>
+    <t>202Hg</t>
+  </si>
+  <si>
+    <t>153Eu</t>
+  </si>
+  <si>
+    <t>197Au</t>
+  </si>
+  <si>
+    <t>107Ag</t>
+  </si>
+  <si>
+    <t>114Cd</t>
+  </si>
+  <si>
+    <t>121Sb</t>
+  </si>
+  <si>
+    <t>164Dy</t>
+  </si>
+  <si>
+    <t>174Yb</t>
+  </si>
+  <si>
+    <t>120Sn</t>
+  </si>
+  <si>
+    <t>133Cs</t>
+  </si>
+  <si>
+    <t>158Gd</t>
+  </si>
+  <si>
+    <t>192Os</t>
+  </si>
+  <si>
+    <t>180Hf</t>
+  </si>
+  <si>
+    <t>185Re</t>
+  </si>
+  <si>
+    <t>152Sm</t>
+  </si>
+  <si>
+    <t>169Tm</t>
   </si>
   <si>
     <t>165Ho</t>
   </si>
   <si>
-    <t>153Eu</t>
-  </si>
-  <si>
-    <t>197Au</t>
+    <t>140Ce</t>
   </si>
   <si>
     <t>139La</t>
   </si>
   <si>
+    <t>166Er</t>
+  </si>
+  <si>
+    <t>159Tb</t>
+  </si>
+  <si>
     <t>138Ba</t>
-  </si>
-  <si>
-    <t>166Er</t>
-  </si>
-  <si>
-    <t>133Cs</t>
-  </si>
-  <si>
-    <t>195Pt</t>
-  </si>
-  <si>
-    <t>159Tb</t>
-  </si>
-  <si>
-    <t>120Sn</t>
-  </si>
-  <si>
-    <t>185Re</t>
-  </si>
-  <si>
-    <t>152Sm</t>
-  </si>
-  <si>
-    <t>174Yb</t>
-  </si>
-  <si>
-    <t>164Dy</t>
-  </si>
-  <si>
-    <t>114Cd</t>
-  </si>
-  <si>
-    <t>140Ce</t>
-  </si>
-  <si>
-    <t>108Pd</t>
-  </si>
-  <si>
-    <t>208Pb</t>
-  </si>
-  <si>
-    <t>107Ag</t>
-  </si>
-  <si>
-    <t>202Hg</t>
-  </si>
-  <si>
-    <t>158Gd</t>
-  </si>
-  <si>
-    <t>169Tm</t>
-  </si>
-  <si>
-    <t>192Os</t>
-  </si>
-  <si>
-    <t>175Lu</t>
-  </si>
-  <si>
-    <t>193Ir</t>
-  </si>
-  <si>
-    <t>180Hf</t>
-  </si>
-  <si>
-    <t>121Sb</t>
   </si>
 </sst>
 </file>
@@ -564,16 +564,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
         <v>4</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -584,22 +587,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -607,22 +610,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>216</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="D4">
-        <v>244</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F4">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -630,16 +633,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>30</v>
-      </c>
-      <c r="D5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
@@ -650,19 +650,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="F6">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -673,19 +676,19 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -693,22 +696,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -716,16 +719,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="D9">
+        <v>38</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>325</v>
       </c>
       <c r="G9" t="s">
         <v>4</v>
@@ -735,17 +741,17 @@
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
       <c r="E10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
         <v>4</v>
@@ -756,56 +762,65 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B12">
+        <v>862</v>
+      </c>
       <c r="C12">
-        <v>5</v>
+        <v>140</v>
+      </c>
+      <c r="D12">
+        <v>271</v>
       </c>
       <c r="E12">
-        <v>23</v>
+        <v>323</v>
       </c>
       <c r="F12">
-        <v>28</v>
+        <v>452</v>
       </c>
       <c r="G12" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
       <c r="C13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
         <v>4</v>
@@ -816,16 +831,19 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="F14">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s">
         <v>4</v>
@@ -835,31 +853,43 @@
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B15">
+        <v>430</v>
+      </c>
       <c r="C15">
-        <v>1</v>
+        <v>187</v>
+      </c>
+      <c r="D15">
+        <v>515</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>328</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
       <c r="E16">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="F16">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -867,22 +897,22 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>433</v>
+        <v>19</v>
       </c>
       <c r="E17">
-        <v>296</v>
+        <v>64</v>
       </c>
       <c r="F17">
-        <v>313</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -890,22 +920,22 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E18">
+        <v>29</v>
+      </c>
+      <c r="F18">
         <v>41</v>
       </c>
-      <c r="F18">
-        <v>13</v>
-      </c>
       <c r="G18" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -913,19 +943,19 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F19">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
         <v>4</v>
@@ -936,22 +966,22 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="C20">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E20">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="F20">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="G20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -959,33 +989,39 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C21">
-        <v>69</v>
+        <v>191</v>
       </c>
       <c r="D21">
-        <v>121</v>
+        <v>951</v>
       </c>
       <c r="E21">
-        <v>144</v>
+        <v>564</v>
       </c>
       <c r="F21">
-        <v>164</v>
+        <v>649</v>
       </c>
       <c r="G21" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
       <c r="E22">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G22" t="s">
         <v>3</v>
@@ -995,14 +1031,23 @@
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>927</v>
+      </c>
+      <c r="D23">
+        <v>47</v>
+      </c>
       <c r="E23">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1012,94 +1057,88 @@
       <c r="C24">
         <v>1</v>
       </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
       <c r="F24">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B25">
-        <v>8</v>
-      </c>
       <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>7</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B26">
-        <v>105</v>
-      </c>
       <c r="C26">
-        <v>14</v>
-      </c>
-      <c r="D26">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>148</v>
+        <v>7</v>
       </c>
       <c r="F26">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
       <c r="E27">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
       <c r="C28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1107,13 +1146,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
         <v>4</v>
@@ -1124,30 +1166,36 @@
         <v>34</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>59</v>
+      </c>
+      <c r="E30">
+        <v>12</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C31">
-        <v>20</v>
+      <c r="B31">
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="F31">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G31" t="s">
         <v>3</v>
@@ -1157,28 +1205,40 @@
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>27</v>
+      </c>
       <c r="E32">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
       <c r="E33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1189,10 +1249,10 @@
         <v>2</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G34" t="s">
         <v>4</v>
@@ -1205,14 +1265,20 @@
       <c r="B35">
         <v>1</v>
       </c>
+      <c r="C35">
+        <v>57</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
       <c r="E35">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1220,13 +1286,19 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G36" t="s">
         <v>4</v>
@@ -1236,40 +1308,25 @@
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B37">
-        <v>37</v>
-      </c>
-      <c r="C37">
-        <v>9</v>
-      </c>
-      <c r="D37">
-        <v>11</v>
-      </c>
       <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
         <v>5</v>
       </c>
-      <c r="F37">
-        <v>31</v>
-      </c>
       <c r="G37" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
       <c r="E38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G38" t="s">
         <v>4</v>
@@ -1279,57 +1336,39 @@
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>439</v>
-      </c>
-      <c r="D39">
-        <v>17</v>
-      </c>
       <c r="E39">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G39" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40">
-        <v>27</v>
-      </c>
       <c r="E40">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F40">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
       <c r="E41">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F41">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G41" t="s">
         <v>4</v>
@@ -1340,7 +1379,7 @@
         <v>46</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -1353,11 +1392,14 @@
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
       <c r="E43">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G43" t="s">
         <v>3</v>
@@ -1367,11 +1409,20 @@
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="B44">
+        <v>73</v>
+      </c>
+      <c r="C44">
+        <v>18</v>
+      </c>
+      <c r="D44">
+        <v>30</v>
+      </c>
       <c r="E44">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="G44" t="s">
         <v>4</v>
@@ -1381,17 +1432,23 @@
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="B45">
+        <v>18</v>
+      </c>
       <c r="C45">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G45" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1399,10 +1456,10 @@
         <v>50</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G46" t="s">
         <v>4</v>
@@ -1412,11 +1469,14 @@
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
       <c r="E47">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G47" t="s">
         <v>3</v>
@@ -1426,17 +1486,23 @@
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B48">
+        <v>229</v>
+      </c>
       <c r="C48">
-        <v>12</v>
+        <v>38</v>
+      </c>
+      <c r="D48">
+        <v>30</v>
       </c>
       <c r="E48">
-        <v>8</v>
+        <v>301</v>
       </c>
       <c r="F48">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="G48" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
